--- a/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Suggest.xlsx
+++ b/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Suggest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narakorn.s\Desktop\(OPR)Import\Import_Emp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8898044D-CCAA-47E0-9A04-D96B179473B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDA29DE-5C53-4228-824E-17C683FDB19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>company_code</t>
   </si>
@@ -54,13 +54,16 @@
     <t>รหัสพนักงานที่แนะนำ</t>
   </si>
   <si>
-    <t>วันที่</t>
-  </si>
-  <si>
     <t>EMP01</t>
   </si>
   <si>
     <t>empsuggest_note</t>
+  </si>
+  <si>
+    <t>empsuggest_amount</t>
+  </si>
+  <si>
+    <t>จำนวนเงิน</t>
   </si>
 </sst>
 </file>
@@ -121,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -132,6 +135,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -159,9 +165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,9 +205,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,26 +240,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,26 +275,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -481,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -511,7 +483,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -522,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5">
         <v>45077</v>
@@ -539,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,6 +522,7 @@
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -563,10 +536,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -580,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -594,10 +567,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5">
-        <v>45077</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
